--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3340814.212680441</v>
+        <v>3338562.132969234</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>93.52676208877617</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>264.9486589497409</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>10.93787135974287</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>206.3669734826433</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -877,7 +877,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>16.61609021059913</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>4.443245994136663</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247586</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1057,22 +1057,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>22.89561370261044</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1108,13 +1108,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>99.84759100840529</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>246.7053196171301</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>129.539868031607</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>120.6353666620237</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>158.0933671656955</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,13 +1528,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>50.06209150957563</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>109.040488224226</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>126.9927435506632</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,10 +2773,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>180.6687625091738</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>7.61374123523283</v>
       </c>
       <c r="I31" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412173</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>140.7158229532351</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3667,19 +3667,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>27.02919805176109</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>46.13809394730835</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1514.348043559526</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="C2" t="n">
-        <v>1145.385526619114</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D2" t="n">
-        <v>787.1198280123635</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>787.1198280123635</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>376.133923222756</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4340,16 +4340,16 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796417</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>1904.487375535337</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1514.348043559526</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>657.6489837069648</v>
+        <v>560.4166776763448</v>
       </c>
       <c r="C4" t="n">
-        <v>657.6489837069648</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="D4" t="n">
-        <v>507.5323442946291</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="E4" t="n">
-        <v>359.619250712236</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>223.7776581231568</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>77.56047134101462</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4513,25 +4513,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1718.843059722186</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U4" t="n">
-        <v>1429.74019284783</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V4" t="n">
-        <v>1175.055704641943</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W4" t="n">
-        <v>885.6385346049822</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="X4" t="n">
-        <v>657.6489837069648</v>
+        <v>742.0651425065845</v>
       </c>
       <c r="Y4" t="n">
-        <v>657.6489837069648</v>
+        <v>742.0651425065845</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1921.870414581994</v>
+        <v>1274.539111149739</v>
       </c>
       <c r="C5" t="n">
-        <v>1552.907897641582</v>
+        <v>905.5765942093278</v>
       </c>
       <c r="D5" t="n">
-        <v>1194.642199034832</v>
+        <v>547.3108956025774</v>
       </c>
       <c r="E5" t="n">
-        <v>1194.642199034832</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>783.6562942452244</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>368.5838440902209</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>71.00024369898813</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>3072.075344883007</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>3072.075344883007</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X5" t="n">
-        <v>2698.609586621928</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y5" t="n">
-        <v>2308.470254646116</v>
+        <v>1661.138951213861</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4659,37 +4659,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>652.2346852641123</v>
+        <v>551.0642295677644</v>
       </c>
       <c r="C7" t="n">
-        <v>483.2985023362054</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="D7" t="n">
-        <v>333.1818629238696</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="E7" t="n">
-        <v>333.1818629238696</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F7" t="n">
-        <v>333.1818629238696</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1323.155438708629</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1068.470950502742</v>
       </c>
       <c r="W7" t="n">
-        <v>880.2242361621296</v>
+        <v>779.0537804657818</v>
       </c>
       <c r="X7" t="n">
-        <v>652.2346852641123</v>
+        <v>551.0642295677644</v>
       </c>
       <c r="Y7" t="n">
-        <v>652.2346852641123</v>
+        <v>551.0642295677644</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1881.708680670284</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1512.746163729873</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1154.480465123122</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>768.692212524878</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>357.7063077352704</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912088</v>
@@ -4820,34 +4820,34 @@
         <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995486</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734406</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="Y8" t="n">
-        <v>2268.308520734406</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1767.604278224154</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1478.501411349798</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1478.501411349798</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>370.0144869816389</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5042,7 +5042,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5066,25 +5066,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7414352191925</v>
+        <v>923.067041434951</v>
       </c>
       <c r="M12" t="n">
-        <v>1025.119922845744</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1652.717886400351</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>2204.627616639638</v>
+        <v>2072.355259300789</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2495.978408795857</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>530.3315352860773</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2396.395314378669</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2213.540480033573</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1993.939015056514</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1704.863788400712</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1450.179300194825</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1160.762130157864</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>932.7725792598471</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>711.980000116317</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,31 +5297,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5476,10 +5476,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="17">
@@ -5492,31 +5492,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,31 +5531,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5732,16 +5732,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5832,13 +5832,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N21" t="n">
         <v>1344.266747951538</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>766.1780053015053</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>618.2649117191122</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>471.3749642212018</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>304.1788649360818</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="23">
@@ -5978,13 +5978,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5996,10 +5996,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6084,10 +6084,10 @@
         <v>2366.028450684176</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6221,25 +6221,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,25 +6303,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6449,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597619</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E31" t="n">
-        <v>411.9631215597619</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F31" t="n">
-        <v>411.9631215597619</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G31" t="n">
-        <v>244.7670222746419</v>
+        <v>101.5073107603283</v>
       </c>
       <c r="H31" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6689,10 +6689,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
@@ -6707,13 +6707,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
         <v>402.7245934908939</v>
@@ -6892,16 +6892,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>697.5276345711974</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6965,7 +6965,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -7017,25 +7017,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>606.6423399580283</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>459.7523924601179</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7123,22 +7123,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7315,16 +7315,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7397,31 +7397,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>282.1326295060853</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>140.4207983482833</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7843,13 +7843,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.595168441781425e-12</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>16.31315520054606</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>58.2063328744018</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>12.04875628922497</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>13.30196929556064</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>144.634190040853</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,10 +24661,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>105.8542358274172</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="I31" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.00531331087754</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>24.80831533903373</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>138.4949402405078</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>35.12774237125718</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>738937.5928778553</v>
+      </c>
+      <c r="C2" t="n">
         <v>738937.5928778558</v>
-      </c>
-      <c r="C2" t="n">
-        <v>738937.5928778553</v>
       </c>
       <c r="D2" t="n">
         <v>738937.5928778552</v>
@@ -26323,37 +26323,37 @@
         <v>726431.9397210053</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="G2" t="n">
         <v>726431.9397210052</v>
       </c>
       <c r="H2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="I2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="J2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="K2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="M2" t="n">
         <v>726431.9397210053</v>
-      </c>
-      <c r="J2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="K2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.9397210055</v>
       </c>
       <c r="N2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.894519977620803e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.246394276677165e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.0670231448</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.06702314486</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314479</v>
+        <v>90354.06702314485</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179355</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179358</v>
       </c>
       <c r="G4" t="n">
+        <v>11167.03225179347</v>
+      </c>
+      <c r="H4" t="n">
         <v>11167.03225179354</v>
-      </c>
-      <c r="H4" t="n">
-        <v>11167.03225179352</v>
       </c>
       <c r="I4" t="n">
         <v>11167.03225179351</v>
@@ -26448,10 +26448,10 @@
         <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179354</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179354</v>
       </c>
       <c r="O4" t="n">
         <v>11167.03225179351</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-788095.1604342749</v>
+        <v>-788095.1604342754</v>
       </c>
       <c r="C6" t="n">
-        <v>540649.5852933172</v>
+        <v>540649.5852933181</v>
       </c>
       <c r="D6" t="n">
-        <v>540649.5852933171</v>
+        <v>540649.5852933167</v>
       </c>
       <c r="E6" t="n">
-        <v>288729.9158379494</v>
+        <v>288695.177912514</v>
       </c>
       <c r="F6" t="n">
-        <v>614142.3776453048</v>
+        <v>614107.6397198688</v>
       </c>
       <c r="G6" t="n">
-        <v>614142.3776453045</v>
+        <v>614107.6397198688</v>
       </c>
       <c r="H6" t="n">
-        <v>614142.3776453048</v>
+        <v>614107.6397198689</v>
       </c>
       <c r="I6" t="n">
-        <v>614142.3776453047</v>
+        <v>614107.6397198688</v>
       </c>
       <c r="J6" t="n">
-        <v>396611.1752480274</v>
+        <v>396576.4373225911</v>
       </c>
       <c r="K6" t="n">
-        <v>614142.3776453047</v>
+        <v>614107.6397198691</v>
       </c>
       <c r="L6" t="n">
-        <v>614142.3776453049</v>
+        <v>614107.6397198688</v>
       </c>
       <c r="M6" t="n">
-        <v>529087.3497097931</v>
+        <v>529052.6117843572</v>
       </c>
       <c r="N6" t="n">
-        <v>614142.3776453047</v>
+        <v>614107.639719869</v>
       </c>
       <c r="O6" t="n">
-        <v>614142.3776453048</v>
+        <v>614107.639719869</v>
       </c>
       <c r="P6" t="n">
-        <v>614142.3776453048</v>
+        <v>614107.639719869</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26802,7 +26802,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,7 +27024,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,7 +27270,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>289.2070795747044</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>145.9730667037126</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>85.41454905009522</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,10 +27585,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>13.18197579352585</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,7 +27597,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>365.3142798616627</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>37.13368377878929</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27777,22 +27777,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>143.1301945564178</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,13 +27828,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>186.3642471972076</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>164.2164060363233</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>240.1912326468621</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>24.78568136090759</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>61.45558211047367</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31844,31 +31844,31 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>485.927610870024</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>160.6314956130967</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32075,19 +32075,19 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32096,7 +32096,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32312,31 +32312,31 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>195.7502366106279</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32479,7 +32479,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N20" t="n">
         <v>981.2715114159425</v>
@@ -32552,16 +32552,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338207</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32804,13 +32804,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,10 +33023,10 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,16 +33035,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33263,13 +33263,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,28 +33500,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33737,19 +33737,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33898,7 +33898,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
@@ -33968,22 +33968,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>622.4211036182646</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34369,7 +34369,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>351.9532034556937</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>20.64972152707519</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35744,7 +35744,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36139,7 +36139,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36200,16 +36200,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394657</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36452,13 +36452,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,16 +36683,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37385,19 +37385,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37546,7 +37546,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37616,22 +37616,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,13 +38111,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
